--- a/DataTable/FieldGroupUpgradeCostTable.xlsx
+++ b/DataTable/FieldGroupUpgradeCostTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1D21444C-E13E-934D-8A8A-FC1D06F5E108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{444D1D72-87E4-3A46-9A9A-265DC01092A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1040" windowWidth="16880" windowHeight="9700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="1040" windowWidth="18080" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldGroupUpgradeCostTable" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,8 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>float</t>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1043,7 +1044,7 @@
   <dimension ref="A2:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>

--- a/DataTable/FieldGroupUpgradeCostTable.xlsx
+++ b/DataTable/FieldGroupUpgradeCostTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{444D1D72-87E4-3A46-9A9A-265DC01092A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{16AEDBC6-0D5F-42EB-BA07-6CC7F5A9904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1040" windowWidth="18080" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldGroupUpgradeCostTable" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,8 +683,8 @@
     <xf numFmtId="49" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1041,26 +1041,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D39"/>
+  <dimension ref="A2:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5703125" style="2"/>
-    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="2"/>
+    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" style="2"/>
+    <col min="5" max="5" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5546875" style="2"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="2"/>
+    <col min="11" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1088,543 +1088,774 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1">
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f>A4+1</f>
         <v>1</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A39" si="0">A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
       </c>
       <c r="D6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
+      <c r="D15" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>6</v>
+      </c>
+      <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
+      <c r="D16" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="C17" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
-        <v>3</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="4">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="4">
-        <v>4</v>
-      </c>
-      <c r="C13" s="4">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1">
-      <c r="A14" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
-      <c r="D14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1">
-      <c r="A15" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <v>11</v>
-      </c>
-      <c r="D15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1">
-      <c r="A16" s="4">
-        <f t="shared" si="0"/>
+      <c r="D18" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B17" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1">
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>6</v>
       </c>
       <c r="C19" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D21" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B22" s="4">
         <v>7</v>
       </c>
       <c r="C22" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B23" s="4">
         <v>7</v>
       </c>
       <c r="C23" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D23" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D24" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="1" customFormat="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="4">
         <v>8</v>
       </c>
       <c r="C25" s="4">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="1" customFormat="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B26" s="4">
         <v>8</v>
       </c>
       <c r="C26" s="4">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B27" s="4">
         <v>8</v>
       </c>
       <c r="C27" s="4">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D27" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="4">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="1" customFormat="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B29" s="4">
         <v>9</v>
       </c>
       <c r="C29" s="4">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="1" customFormat="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B30" s="4">
         <v>9</v>
       </c>
       <c r="C30" s="4">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4">
+        <v>9</v>
+      </c>
+      <c r="C31" s="4">
+        <v>16</v>
+      </c>
+      <c r="D31" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="4">
+        <v>9</v>
+      </c>
+      <c r="C32" s="4">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3</v>
+      </c>
+      <c r="D34" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4">
+        <v>4</v>
+      </c>
+      <c r="D35" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="4">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4">
+        <v>20</v>
+      </c>
+      <c r="D37" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4">
+        <v>21</v>
+      </c>
+      <c r="D38" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4">
+        <v>8</v>
+      </c>
+      <c r="D39" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="4">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4">
+        <v>22</v>
+      </c>
+      <c r="D41" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <v>11</v>
+      </c>
+      <c r="C42" s="4">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="4">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4">
+        <v>24</v>
+      </c>
+      <c r="D43" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3</v>
+      </c>
+      <c r="D44" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="4">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>25</v>
+      </c>
+      <c r="D46" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="4">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4">
         <v>26</v>
       </c>
-      <c r="D30" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="1" customFormat="1">
-      <c r="A31" s="4">
-        <f t="shared" si="0"/>
+      <c r="D47" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="4">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="4">
+      <c r="D48" s="4">
         <v>10</v>
       </c>
-      <c r="C31" s="4">
-        <v>27</v>
-      </c>
-      <c r="D31" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1">
-      <c r="A32" s="4">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4">
+        <v>13</v>
+      </c>
+      <c r="C49" s="4">
+        <v>6</v>
+      </c>
+      <c r="D49" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13</v>
+      </c>
+      <c r="C50" s="4">
+        <v>7</v>
+      </c>
+      <c r="D50" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="4">
+        <v>13</v>
+      </c>
+      <c r="C51" s="4">
         <v>28</v>
       </c>
-      <c r="B32" s="4">
+      <c r="D51" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="4">
+        <v>13</v>
+      </c>
+      <c r="C52" s="4">
+        <v>29</v>
+      </c>
+      <c r="D52" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>13</v>
+      </c>
+      <c r="C53" s="4">
+        <v>30</v>
+      </c>
+      <c r="D53" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" s="4">
+        <v>14</v>
+      </c>
+      <c r="C54" s="4">
+        <v>8</v>
+      </c>
+      <c r="D54" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4">
+        <v>14</v>
+      </c>
+      <c r="C55" s="4">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="4">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4">
+        <v>31</v>
+      </c>
+      <c r="D56" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="4">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4">
+        <v>32</v>
+      </c>
+      <c r="D57" s="4">
         <v>10</v>
       </c>
-      <c r="C32" s="4">
-        <v>28</v>
-      </c>
-      <c r="D32" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1">
-      <c r="A33" s="4">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B33" s="4">
-        <v>10</v>
-      </c>
-      <c r="C33" s="4">
-        <v>29</v>
-      </c>
-      <c r="D33" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1">
-      <c r="A34" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="4">
-        <v>11</v>
-      </c>
-      <c r="C34" s="4">
-        <v>30</v>
-      </c>
-      <c r="D34" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1">
-      <c r="A35" s="4">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B35" s="4">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4">
-        <v>31</v>
-      </c>
-      <c r="D35" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1">
-      <c r="A36" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="4">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4">
-        <v>32</v>
-      </c>
-      <c r="D36" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="1" customFormat="1">
-      <c r="A37" s="4">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4">
+        <v>14</v>
+      </c>
+      <c r="C58" s="4">
         <v>33</v>
       </c>
-      <c r="B37" s="4">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4">
-        <v>33</v>
-      </c>
-      <c r="D37" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1">
-      <c r="A38" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="4">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4">
-        <v>34</v>
-      </c>
-      <c r="D38" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1">
-      <c r="A39" s="4">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="4">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4">
-        <v>100</v>
+      <c r="D58" s="4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DataTable/FieldGroupUpgradeCostTable.xlsx
+++ b/DataTable/FieldGroupUpgradeCostTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityProject\ProjectF\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seh00n/GitHub/ProjectF/DataTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{16AEDBC6-0D5F-42EB-BA07-6CC7F5A9904F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E1F7F069-AF7A-3343-B47D-9B8D3DAA7E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FieldGroupUpgradeCostTable" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1044,23 +1044,26 @@
   <dimension ref="A2:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="2"/>
-    <col min="3" max="3" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" style="2"/>
+    <col min="3" max="3" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" style="2"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="2"/>
+    <col min="11" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="1" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="1" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="1" customFormat="1">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="1" customFormat="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="1" customFormat="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="1" customFormat="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" s="1" customFormat="1">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="1" customFormat="1">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="1" customFormat="1">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" s="1" customFormat="1">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="1" customFormat="1">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="1" customFormat="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="1" customFormat="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="1" customFormat="1">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="1" customFormat="1">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="1" customFormat="1">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="1" customFormat="1">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="1" customFormat="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="1" customFormat="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="1" customFormat="1">
       <c r="A21" s="4">
         <v>17</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="1" customFormat="1">
       <c r="A22" s="4">
         <v>18</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="1" customFormat="1">
       <c r="A23" s="4">
         <v>19</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="1" customFormat="1">
       <c r="A24" s="4">
         <v>20</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="1" customFormat="1">
       <c r="A25" s="4">
         <v>21</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="1" customFormat="1">
       <c r="A26" s="4">
         <v>22</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" s="1" customFormat="1">
       <c r="A27" s="4">
         <v>23</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" s="1" customFormat="1">
       <c r="A28" s="4">
         <v>24</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" s="1" customFormat="1">
       <c r="A29" s="4">
         <v>25</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="1" customFormat="1">
       <c r="A30" s="4">
         <v>26</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" s="1" customFormat="1">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" s="1" customFormat="1">
       <c r="A32" s="4">
         <v>28</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" s="1" customFormat="1">
       <c r="A33" s="4">
         <v>29</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" s="1" customFormat="1">
       <c r="A34" s="4">
         <v>30</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" s="1" customFormat="1">
       <c r="A35" s="4">
         <v>31</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" s="1" customFormat="1">
       <c r="A36" s="4">
         <v>32</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" s="1" customFormat="1">
       <c r="A37" s="4">
         <v>33</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" s="1" customFormat="1">
       <c r="A38" s="4">
         <v>34</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" s="1" customFormat="1">
       <c r="A39" s="4">
         <v>35</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>36</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>37</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>38</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>39</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>40</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>41</v>
       </c>
@@ -1676,7 +1679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>42</v>
       </c>
@@ -1690,7 +1693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>43</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
         <v>44</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>45</v>
       </c>
@@ -1732,7 +1735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>46</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>47</v>
       </c>
@@ -1760,7 +1763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>48</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>49</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>50</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>51</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>52</v>
       </c>
@@ -1830,7 +1833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>53</v>
       </c>
@@ -1844,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>54</v>
       </c>
